--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T08:26:49+00:00</t>
+    <t>2022-09-16T09:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T09:34:57+00:00</t>
+    <t>2022-09-16T10:00:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:00:28+00:00</t>
+    <t>2022-09-16T10:16:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:16:44+00:00</t>
+    <t>2022-09-16T10:20:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:20:04+00:00</t>
+    <t>2022-09-16T10:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:34:10+00:00</t>
+    <t>2022-09-16T10:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="440">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:56:00+00:00</t>
+    <t>2022-09-16T13:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1288,6 +1288,12 @@
   <si>
     <t xml:space="preserve">Ratio
 </t>
+  </si>
+  <si>
+    <t>薬剤の投与量速度</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量の速度</t>
   </si>
   <si>
     <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.@@ -1307,11 +1313,11 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerDay}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
-    <t>１日当たりでの薬剤の投入量</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
@@ -1331,20 +1337,29 @@
 </t>
   </si>
   <si>
-    <t>時間範囲指定された上限下限量</t>
+    <t>範囲指定された時間の上限下限</t>
   </si>
   <si>
     <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
     <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
-</t>
-  </si>
-  <si>
-    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -1672,7 +1687,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8916,16 +8931,16 @@
         <v>410</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -8987,10 +9002,10 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70">
@@ -8998,7 +9013,7 @@
         <v>409</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>74</v>
@@ -9020,19 +9035,19 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9093,10 +9108,10 @@
         <v>398</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>122</v>
@@ -9107,7 +9122,7 @@
         <v>409</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>74</v>
@@ -9129,19 +9144,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9213,9 +9228,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>74</v>
       </c>
@@ -9236,19 +9253,19 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9297,7 +9314,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9309,18 +9326,18 @@
         <v>398</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>122</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9343,19 +9360,19 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9404,7 +9421,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9416,18 +9433,18 @@
         <v>398</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>401</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9453,16 +9470,16 @@
         <v>395</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9511,7 +9528,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9529,6 +9546,113 @@
         <v>400</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>401</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:17:21+00:00</t>
+    <t>2022-09-16T14:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:04:42+00:00</t>
+    <t>2022-09-16T14:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:54:21+00:00</t>
+    <t>2022-09-17T07:20:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:20:02+00:00</t>
+    <t>2022-09-17T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:33:19+00:00</t>
+    <t>2022-09-17T08:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:22:44+00:00</t>
+    <t>2022-09-17T08:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:55:39+00:00</t>
+    <t>2022-09-17T09:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T09:03:50+00:00</t>
+    <t>2022-09-17T13:53:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T13:53:57+00:00</t>
+    <t>2022-09-17T14:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T14:19:17+00:00</t>
+    <t>2022-09-17T23:11:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:11:52+00:00</t>
+    <t>2022-09-17T23:36:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:36:21+00:00</t>
+    <t>2022-09-17T23:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:49:46+00:00</t>
+    <t>2022-09-17T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:51:36+00:00</t>
+    <t>2022-09-18T01:43:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T01:43:09+00:00</t>
+    <t>2022-09-18T02:15:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T02:15:16+00:00</t>
+    <t>2022-09-18T06:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T06:24:36+00:00</t>
+    <t>2022-09-18T06:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T06:42:45+00:00</t>
+    <t>2022-09-18T16:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -318,30 +318,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>periodOfUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
+    <t>dosageComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
 </t>
   </si>
   <si>
-    <t>投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>usageDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
-</t>
-  </si>
-  <si>
-    <t>実投与日数</t>
-  </si>
-  <si>
-    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
+    <t>用法コメント</t>
+  </si>
+  <si>
+    <t>用法コメントを格納するための拡張</t>
   </si>
   <si>
     <t>line</t>
@@ -370,6 +357,19 @@
     <t>投与装置を格納する拡張</t>
   </si>
   <si>
+    <t>lineComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_LineComment}
+</t>
+  </si>
+  <si>
+    <t>ラインコメント</t>
+  </si>
+  <si>
+    <t>ラインコメントを格納するための拡張</t>
+  </si>
+  <si>
     <t>Dosage.modifierExtension</t>
   </si>
   <si>
@@ -933,40 +933,26 @@
     <t>RXR-1</t>
   </si>
   <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
+    <t>Dosage.route.id</t>
+  </si>
+  <si>
+    <t>Dosage.route.extension</t>
+  </si>
+  <si>
+    <t>routeComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RouteComment}
+</t>
+  </si>
+  <si>
+    <t>投与経路コメント</t>
+  </si>
+  <si>
+    <t>投与経路コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.route.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -985,19 +971,92 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Dosage.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>methodComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_MethodComment}
+</t>
+  </si>
+  <si>
+    <t>手技コメント</t>
+  </si>
+  <si>
+    <t>手技コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -1156,15 +1215,6 @@
   </si>
   <si>
     <t>Dosage.method.text</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Dosage.doseAndRate</t>
@@ -1330,6 +1380,59 @@
     <t>RTO</t>
   </si>
   <si>
+    <t>Dosage.doseAndRate.rate[x].id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].extension</t>
+  </si>
+  <si>
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
+</t>
+  </si>
+  <si>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Numerator value</t>
+  </si>
+  <si>
+    <t>The value of the numerator.</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>.numerator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
     <t>rateRange</t>
   </si>
   <si>
@@ -1343,13 +1446,197 @@
     <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
-    <t>rateQuantity</t>
+    <t>Dosage.doseAndRate.rate[x].low</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
+    <t>時間範囲（下限）</t>
+  </si>
+  <si>
+    <t>The low limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Range.low</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>NR.1</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.value</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.unit</t>
+  </si>
+  <si>
+    <t>単位時間の単位</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].low.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high</t>
+  </si>
+  <si>
+    <t>時間範囲（上限）</t>
+  </si>
+  <si>
+    <t>The high limit. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the high element is missing, the high boundary is not known.</t>
+  </si>
+  <si>
+    <t>Range.high</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>NR.2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.value</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.comparator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.system</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].high.code</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
     <t>A fixed quantity (no comparator)</t>
   </si>
   <si>
@@ -1357,6 +1644,36 @@
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].value</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].comparator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].code</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1687,7 +2004,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK75"/>
+  <dimension ref="A1:AK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1696,8 +2013,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2174,7 +2491,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -2279,7 +2596,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -5971,23 +6288,19 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6011,13 +6324,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6035,7 +6348,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6047,29 +6360,29 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6081,15 +6394,17 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6126,31 +6441,31 @@
         <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>87</v>
@@ -6161,11 +6476,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="C43" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6184,17 +6501,15 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>91</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6231,16 +6546,16 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>97</v>
@@ -6258,7 +6573,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6266,7 +6581,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6289,19 +6604,19 @@
         <v>117</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6338,17 +6653,19 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6363,19 +6680,17 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6396,19 +6711,19 @@
         <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6433,11 +6748,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6455,13 +6772,13 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -6470,15 +6787,15 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6498,19 +6815,23 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6534,13 +6855,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6558,7 +6879,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6570,29 +6891,29 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6604,17 +6925,15 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6651,31 +6970,31 @@
         <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>87</v>
@@ -6686,18 +7005,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6706,29 +7025,27 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>92</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>74</v>
@@ -6758,44 +7075,46 @@
         <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>333</v>
+        <v>87</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6804,7 +7123,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -6813,20 +7132,18 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6875,30 +7192,30 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>97</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6909,7 +7226,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -6921,17 +7238,19 @@
         <v>117</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6968,25 +7287,23 @@
         <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -6995,17 +7312,19 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>348</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7026,17 +7345,19 @@
         <v>117</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7061,13 +7382,11 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7085,13 +7404,13 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
@@ -7100,15 +7419,15 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7128,23 +7447,19 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>357</v>
+        <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7192,7 +7507,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>361</v>
+        <v>86</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7204,31 +7519,29 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>362</v>
+        <v>87</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>363</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7237,23 +7550,21 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>91</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>92</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7277,29 +7588,31 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7311,18 +7624,18 @@
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7330,7 +7643,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>82</v>
@@ -7342,25 +7655,29 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>345</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>84</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>74</v>
@@ -7402,7 +7719,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7414,29 +7731,29 @@
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>87</v>
+        <v>352</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7445,19 +7762,19 @@
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7495,42 +7812,42 @@
         <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>97</v>
+        <v>358</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>87</v>
+        <v>359</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7538,7 +7855,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>82</v>
@@ -7553,26 +7870,24 @@
         <v>117</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>74</v>
@@ -7614,7 +7929,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7629,15 +7944,15 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7663,15 +7978,15 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7719,7 +8034,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7734,15 +8049,15 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7765,17 +8080,19 @@
         <v>117</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -7824,7 +8141,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7839,17 +8156,19 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7870,17 +8189,19 @@
         <v>117</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -7905,13 +8226,11 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -7929,13 +8248,13 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>74</v>
@@ -7944,15 +8263,15 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7972,23 +8291,19 @@
         <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>357</v>
+        <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8036,7 +8351,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>361</v>
+        <v>86</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8048,29 +8363,29 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>362</v>
+        <v>87</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>363</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8079,23 +8394,21 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8131,42 +8444,42 @@
         <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>371</v>
+        <v>87</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8174,10 +8487,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8189,22 +8502,26 @@
         <v>117</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>168</v>
+        <v>345</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>74</v>
@@ -8246,13 +8563,13 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
@@ -8261,15 +8578,15 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8289,18 +8606,20 @@
         <v>74</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>84</v>
+        <v>355</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8349,7 +8668,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8361,29 +8680,29 @@
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>87</v>
+        <v>359</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8392,21 +8711,21 @@
         <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>362</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
       </c>
@@ -8442,42 +8761,42 @@
         <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>97</v>
+        <v>365</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8500,19 +8819,17 @@
         <v>117</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8537,11 +8854,13 @@
         <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>74</v>
@@ -8559,7 +8878,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8574,15 +8893,15 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8605,19 +8924,19 @@
         <v>117</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8654,17 +8973,19 @@
         <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AB66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8679,19 +9000,17 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8709,22 +9028,22 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>396</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>397</v>
+        <v>134</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8773,7 +9092,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8782,25 +9101,23 @@
         <v>82</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>401</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>74</v>
       </c>
@@ -8809,7 +9126,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -8818,23 +9135,19 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>74</v>
       </c>
@@ -8882,30 +9195,30 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8925,23 +9238,19 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>410</v>
+        <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
       </c>
@@ -8977,17 +9286,19 @@
         <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>409</v>
+        <v>86</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -8999,31 +9310,29 @@
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>415</v>
+        <v>87</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>416</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9035,20 +9344,18 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>418</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>419</v>
+        <v>91</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9084,46 +9391,44 @@
         <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>409</v>
+        <v>97</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>422</v>
+        <v>87</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9141,22 +9446,22 @@
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9181,13 +9486,11 @@
         <v>74</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>74</v>
+        <v>399</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>74</v>
@@ -9205,7 +9508,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9214,25 +9517,23 @@
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>74</v>
       </c>
@@ -9250,22 +9551,22 @@
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9302,44 +9603,44 @@
         <v>74</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>401</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>74</v>
       </c>
@@ -9360,19 +9661,19 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9421,7 +9722,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9430,23 +9731,25 @@
         <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>122</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9467,19 +9770,19 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9528,7 +9831,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9537,21 +9840,21 @@
         <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9571,22 +9874,22 @@
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9623,37 +9926,4039 @@
         <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AF75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>401</v>
+      <c r="AK76" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Q90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X92" s="2"/>
+      <c r="Y92" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X93" s="2"/>
+      <c r="Y93" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X100" s="2"/>
+      <c r="Y100" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X101" s="2"/>
+      <c r="Y101" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T06:50:03+00:00</t>
+    <t>2022-09-19T07:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:12:17+00:00</t>
+    <t>2022-09-19T07:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:34:45+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -1266,17 +1266,17 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Quantity
-Range</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
@@ -1289,7 +1289,18 @@
     <t>closed</t>
   </si>
   <si>
-    <t>RXO-2, RXE-3</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>doseQuantity</t>
@@ -1306,48 +1317,11 @@
 【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>doseRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+Quantity</t>
   </si>
   <si>
     <t>薬剤の投与量速度</t>
@@ -1390,19 +1364,6 @@
     <t>RTO</t>
   </si>
   <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
-</t>
-  </si>
-  <si>
-    <t>範囲指定された時間の上限下限</t>
-  </si>
-  <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
-  </si>
-  <si>
     <t>rateQuantity</t>
   </si>
   <si>
@@ -1410,13 +1371,7 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1747,7 +1702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK82"/>
+  <dimension ref="A1:AK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9399,7 +9354,7 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>405</v>
@@ -9470,16 +9425,16 @@
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74">
@@ -9487,7 +9442,7 @@
         <v>404</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>74</v>
@@ -9509,16 +9464,16 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>409</v>
@@ -9579,25 +9534,23 @@
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9615,13 +9568,13 @@
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>423</v>
@@ -9630,7 +9583,7 @@
         <v>424</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9667,19 +9620,17 @@
         <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -9688,10 +9639,10 @@
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>417</v>
+        <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>426</v>
@@ -9702,9 +9653,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9722,7 +9675,7 @@
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>429</v>
@@ -9731,13 +9684,13 @@
         <v>430</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -9774,17 +9727,19 @@
         <v>74</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -9793,24 +9748,24 @@
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>435</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>74</v>
@@ -9832,19 +9787,19 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -9893,7 +9848,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -9902,25 +9857,23 @@
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>121</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>74</v>
       </c>
@@ -9941,19 +9894,19 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10002,7 +9955,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10011,25 +9964,23 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>427</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>74</v>
       </c>
@@ -10050,19 +10001,19 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10111,7 +10062,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10120,21 +10071,21 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10157,19 +10108,19 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10218,7 +10169,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10227,230 +10178,16 @@
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -331,7 +331,7 @@
     <t>line</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Line}
 </t>
   </si>
   <si>
@@ -344,7 +344,7 @@
     <t>device</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
 </t>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity</t>
+RangeQuantity</t>
   </si>
   <si>
     <t>薬剤の投与量速度</t>
@@ -1364,6 +1364,29 @@
     <t>RTO</t>
   </si>
   <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
+</t>
+  </si>
+  <si>
+    <t>範囲指定された時間の上限下限</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
     <t>rateQuantity</t>
   </si>
   <si>
@@ -1377,13 +1400,16 @@
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
+    <t>単位時間当たりの投薬量の上限</t>
+  </si>
+  <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+    <t>1回あたりの投薬量の上限</t>
   </si>
   <si>
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -1393,6 +1419,9 @@
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>生涯の投薬量の上限</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
@@ -1702,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK80"/>
+  <dimension ref="A1:AK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9796,7 +9825,7 @@
         <v>436</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>425</v>
@@ -9860,20 +9889,22 @@
         <v>412</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>74</v>
       </c>
@@ -9894,19 +9925,19 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -9955,7 +9986,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -9967,18 +9998,18 @@
         <v>412</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>121</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10001,19 +10032,19 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10062,7 +10093,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10074,18 +10105,18 @@
         <v>412</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>415</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10111,16 +10142,16 @@
         <v>417</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10169,7 +10200,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10187,6 +10218,113 @@
         <v>414</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>415</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -430,7 +430,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>RXO-6; RXE-21</t>
@@ -914,7 +914,7 @@
     <t>投与経路</t>
   </si>
   <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+    <t>投与経路の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
 【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
@@ -1007,7 +1007,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -1251,7 +1251,7 @@
     <t>力価区分</t>
   </si>
   <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>投与速度・量の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルは注射用法の制約と拡張のうち共通部分を定めている。</t>
+    <t>このデータタイプは注射用法の制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -328,6 +328,19 @@
     <t>用法コメントを格納するための拡張</t>
   </si>
   <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
+</t>
+  </si>
+  <si>
+    <t>投与装置</t>
+  </si>
+  <si>
+    <t>投与装置を格納する拡張</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
@@ -341,19 +354,6 @@
     <t>指示ラインを格納する拡張</t>
   </si>
   <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_Device}
-</t>
-  </si>
-  <si>
-    <t>投与装置</t>
-  </si>
-  <si>
-    <t>投与装置を格納する拡張</t>
-  </si>
-  <si>
     <t>lineComment</t>
   </si>
   <si>
@@ -908,6 +908,90 @@
     <t>RXR-2</t>
   </si>
   <si>
+    <t>Dosage.site.id</t>
+  </si>
+  <si>
+    <t>Dosage.site.extension</t>
+  </si>
+  <si>
+    <t>siteComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_SiteComment}
+</t>
+  </si>
+  <si>
+    <t>投与部位コメント</t>
+  </si>
+  <si>
+    <t>投与部位コメントを格納するための拡張</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {bodySite}
+</t>
+  </si>
+  <si>
+    <t>身体部位の位置に関する詳細</t>
+  </si>
+  <si>
+    <t>身体部位の位置に関する詳細情報。site概念がユースケースに必要な詳細を提供しない場合に使用される。</t>
+  </si>
+  <si>
+    <t>Dosage.site.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Dosage.site.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Dosage.route</t>
   </si>
   <si>
@@ -952,53 +1036,7 @@
     <t>Dosage.route.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>Dosage.route.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Dosage.method</t>
@@ -1731,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK81"/>
+  <dimension ref="A1:AK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5910,23 +5948,19 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>289</v>
+        <v>83</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5950,11 +5984,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -5972,7 +6008,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>85</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5984,29 +6020,29 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -6018,15 +6054,17 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6063,31 +6101,31 @@
         <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>86</v>
@@ -6098,11 +6136,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="C42" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6121,17 +6161,15 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6168,16 +6206,16 @@
         <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>96</v>
@@ -6195,7 +6233,7 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6203,10 +6241,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>74</v>
@@ -6228,13 +6266,13 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6308,7 +6346,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6331,19 +6369,19 @@
         <v>116</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6392,7 +6430,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6407,15 +6445,15 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6441,16 +6479,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6499,7 +6537,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6514,15 +6552,15 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6548,16 +6586,16 @@
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6582,13 +6620,11 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6606,7 +6642,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6621,15 +6657,15 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6732,7 +6768,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6837,10 +6873,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
@@ -6862,13 +6898,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6942,7 +6978,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6965,19 +7001,19 @@
         <v>116</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7014,17 +7050,19 @@
         <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AB50" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7039,19 +7077,17 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7072,19 +7108,19 @@
         <v>116</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7109,11 +7145,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7131,13 +7169,13 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
@@ -7146,15 +7184,15 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7174,19 +7212,23 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7210,13 +7252,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7234,7 +7276,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7246,29 +7288,29 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7280,17 +7322,15 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7327,31 +7367,31 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>86</v>
@@ -7362,18 +7402,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>74</v>
@@ -7382,29 +7422,27 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>91</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>74</v>
@@ -7434,44 +7472,46 @@
         <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>351</v>
+        <v>86</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>352</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7480,7 +7520,7 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7489,20 +7529,18 @@
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7551,30 +7589,30 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>357</v>
+        <v>96</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7585,7 +7623,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7597,17 +7635,19 @@
         <v>116</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
@@ -7644,25 +7684,23 @@
         <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -7671,17 +7709,19 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>366</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7702,17 +7742,19 @@
         <v>116</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7737,13 +7779,11 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>74</v>
@@ -7761,13 +7801,13 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
@@ -7776,15 +7816,15 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>373</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7804,23 +7844,19 @@
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7868,7 +7904,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7880,31 +7916,29 @@
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>74</v>
@@ -7913,23 +7947,21 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>90</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>91</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7953,29 +7985,31 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>385</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7987,18 +8021,18 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8006,7 +8040,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>81</v>
@@ -8018,25 +8052,29 @@
         <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>74</v>
@@ -8078,7 +8116,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8090,29 +8128,29 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8121,19 +8159,19 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>91</v>
+        <v>367</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8171,42 +8209,42 @@
         <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>74</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8214,7 +8252,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>81</v>
@@ -8229,26 +8267,24 @@
         <v>116</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>74</v>
@@ -8290,7 +8326,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8305,15 +8341,15 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8339,15 +8375,15 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>74</v>
       </c>
@@ -8395,7 +8431,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8410,15 +8446,15 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8441,17 +8477,19 @@
         <v>116</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8500,7 +8538,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8515,17 +8553,19 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8546,17 +8586,19 @@
         <v>116</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8581,13 +8623,11 @@
         <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>397</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>74</v>
@@ -8605,13 +8645,13 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
@@ -8620,15 +8660,15 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>373</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8648,23 +8688,19 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8712,7 +8748,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8724,29 +8760,29 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>74</v>
@@ -8755,23 +8791,21 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8807,42 +8841,42 @@
         <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8850,10 +8884,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -8865,22 +8899,26 @@
         <v>116</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>167</v>
+        <v>356</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>74</v>
@@ -8922,13 +8960,13 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -8937,15 +8975,15 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8965,18 +9003,20 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9025,7 +9065,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>85</v>
+        <v>369</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9037,29 +9077,29 @@
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>74</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9068,21 +9108,21 @@
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9118,46 +9158,44 @@
         <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>96</v>
+        <v>376</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>74</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9166,7 +9204,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
@@ -9175,19 +9213,21 @@
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9235,30 +9275,30 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>96</v>
+        <v>383</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>74</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9281,19 +9321,19 @@
         <v>116</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9318,11 +9358,13 @@
         <v>74</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>74</v>
@@ -9340,7 +9382,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9355,15 +9397,15 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9383,22 +9425,22 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>406</v>
+        <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>407</v>
+        <v>132</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>408</v>
+        <v>133</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9435,17 +9477,19 @@
         <v>74</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AB73" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9454,25 +9498,23 @@
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>414</v>
+        <v>313</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>415</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9481,7 +9523,7 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>74</v>
@@ -9490,23 +9532,19 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9554,30 +9592,30 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9597,23 +9635,19 @@
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>422</v>
+        <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9649,17 +9683,19 @@
         <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -9671,31 +9707,29 @@
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>426</v>
+        <v>86</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>427</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>74</v>
@@ -9707,20 +9741,18 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>429</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>430</v>
+        <v>90</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
+        <v>91</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9756,45 +9788,45 @@
         <v>74</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>420</v>
+        <v>96</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>432</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>433</v>
+        <v>86</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>74</v>
@@ -9804,7 +9836,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>74</v>
@@ -9816,20 +9848,16 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>74</v>
       </c>
@@ -9877,34 +9905,32 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>420</v>
+        <v>96</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>438</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>439</v>
+        <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>74</v>
       </c>
@@ -9922,22 +9948,22 @@
         <v>74</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>442</v>
+        <v>137</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -9962,13 +9988,11 @@
         <v>74</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>74</v>
@@ -9986,7 +10010,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -9995,13 +10019,13 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>415</v>
@@ -10009,7 +10033,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10032,19 +10056,19 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10081,19 +10105,17 @@
         <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="AB79" s="2"/>
       <c r="AC79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10102,23 +10124,25 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>121</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>74</v>
       </c>
@@ -10139,19 +10163,19 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10200,7 +10224,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10209,21 +10233,21 @@
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10243,22 +10267,22 @@
         <v>74</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10295,37 +10319,683 @@
         <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>415</v>
+      <c r="AK83" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -1304,7 +1304,7 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1359,7 +1359,7 @@
   </si>
   <si>
     <t>Ratio
-RangeQuantity</t>
+RangeQuantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>薬剤の投与量速度</t>
@@ -1426,10 +1426,6 @@
   </si>
   <si>
     <t>rateQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
   </si>
   <si>
     <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
@@ -10595,13 +10591,13 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="L84" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>420</v>
@@ -10679,7 +10675,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10705,16 +10701,16 @@
         <v>441</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>443</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -10763,7 +10759,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -10786,7 +10782,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10812,16 +10808,16 @@
         <v>429</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -10870,7 +10866,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -10893,7 +10889,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10919,16 +10915,16 @@
         <v>429</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -10977,7 +10973,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -458,7 +458,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -848,10 +848,10 @@
   </si>
   <si>
     <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
-【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageInjection_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -899,7 +899,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1005,7 +1005,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1107,7 +1107,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -1243,7 +1243,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1295,7 +1295,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1798,7 +1798,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -1008,7 +1008,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
@@ -2050,13 +2054,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2122,7 +2126,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -2130,10 +2134,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2144,7 +2148,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -2156,13 +2160,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2213,13 +2217,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -2228,7 +2232,7 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>76</v>
@@ -2236,14 +2240,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -2262,16 +2266,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2309,19 +2313,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -2333,10 +2337,10 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>76</v>
@@ -2344,13 +2348,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -2372,13 +2376,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2429,7 +2433,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2441,7 +2445,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2452,13 +2456,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>76</v>
@@ -2480,13 +2484,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2537,7 +2541,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2549,7 +2553,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2560,13 +2564,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>76</v>
@@ -2588,13 +2592,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2645,7 +2649,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2657,7 +2661,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2668,13 +2672,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>76</v>
@@ -2696,13 +2700,13 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2753,7 +2757,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2765,7 +2769,7 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2776,14 +2780,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2796,25 +2800,25 @@
         <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2863,7 +2867,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2875,10 +2879,10 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2886,10 +2890,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2900,7 +2904,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2909,22 +2913,22 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2973,33 +2977,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3010,7 +3014,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -3019,22 +3023,22 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -3083,33 +3087,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3129,22 +3133,22 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -3169,11 +3173,11 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -3191,7 +3195,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3203,21 +3207,21 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3228,7 +3232,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -3237,19 +3241,19 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3299,33 +3303,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3336,7 +3340,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -3348,19 +3352,19 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3409,33 +3413,33 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3446,7 +3450,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3458,13 +3462,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3515,13 +3519,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3530,7 +3534,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3538,14 +3542,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3564,16 +3568,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3611,19 +3615,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3635,10 +3639,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3646,14 +3650,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3666,25 +3670,25 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3733,7 +3737,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3745,10 +3749,10 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3756,10 +3760,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3779,20 +3783,20 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3841,7 +3845,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3853,10 +3857,10 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3864,10 +3868,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3878,7 +3882,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3887,20 +3891,20 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3949,22 +3953,22 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3972,10 +3976,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3986,7 +3990,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3998,13 +4002,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4055,13 +4059,13 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
@@ -4070,7 +4074,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4078,14 +4082,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4104,16 +4108,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4151,19 +4155,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4175,10 +4179,10 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4186,10 +4190,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4200,7 +4204,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4209,16 +4213,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4269,22 +4273,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4292,10 +4296,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4306,7 +4310,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4315,22 +4319,22 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4379,22 +4383,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4402,10 +4406,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4416,7 +4420,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4425,19 +4429,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4487,22 +4491,22 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4510,10 +4514,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4524,7 +4528,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4533,22 +4537,22 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4597,22 +4601,22 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4620,10 +4624,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4634,7 +4638,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4643,22 +4647,22 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4707,22 +4711,22 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4730,10 +4734,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4744,7 +4748,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4753,19 +4757,19 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4791,13 +4795,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4815,22 +4819,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4838,10 +4842,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4852,7 +4856,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4861,26 +4865,26 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
@@ -4925,22 +4929,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4948,10 +4952,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4962,7 +4966,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4971,19 +4975,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5033,22 +5037,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5056,10 +5060,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5070,7 +5074,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5079,19 +5083,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5141,22 +5145,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5164,10 +5168,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5178,7 +5182,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5187,19 +5191,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5249,22 +5253,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5272,10 +5276,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5286,7 +5290,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5295,19 +5299,19 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5333,13 +5337,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5357,22 +5361,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5380,10 +5384,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5403,19 +5407,19 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5441,11 +5445,11 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5463,7 +5467,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5475,10 +5479,10 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5486,10 +5490,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5509,19 +5513,19 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5571,7 +5575,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5583,10 +5587,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5594,10 +5598,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5617,22 +5621,22 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5657,13 +5661,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5681,7 +5685,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5693,10 +5697,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5704,10 +5708,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5718,7 +5722,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5727,19 +5731,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5789,22 +5793,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5812,10 +5816,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5826,7 +5830,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5835,19 +5839,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5873,11 +5877,11 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5895,22 +5899,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5918,10 +5922,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5932,7 +5936,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5941,19 +5945,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6003,33 +6007,33 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6040,7 +6044,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6049,22 +6053,22 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6089,11 +6093,11 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6111,33 +6115,33 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6148,7 +6152,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6160,13 +6164,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6217,13 +6221,13 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
@@ -6232,7 +6236,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6240,14 +6244,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6266,16 +6270,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6313,19 +6317,19 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6337,10 +6341,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6348,13 +6352,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="B42" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="C42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>76</v>
@@ -6376,13 +6380,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6433,7 +6437,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6445,7 +6449,7 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6456,13 +6460,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
@@ -6484,13 +6488,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6541,7 +6545,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6553,7 +6557,7 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6564,10 +6568,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6587,22 +6591,22 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6651,7 +6655,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6663,21 +6667,21 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6688,7 +6692,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6697,22 +6701,22 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6761,33 +6765,33 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6798,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6807,22 +6811,22 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6847,11 +6851,11 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6869,33 +6873,33 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6906,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6918,13 +6922,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6975,13 +6979,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -6990,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6998,14 +7002,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7024,16 +7028,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7071,19 +7075,19 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7095,10 +7099,10 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7106,13 +7110,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="C49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
@@ -7134,13 +7138,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7191,7 +7195,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7203,7 +7207,7 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7214,10 +7218,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7237,22 +7241,22 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7301,7 +7305,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7313,21 +7317,21 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7338,7 +7342,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7347,22 +7351,22 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7411,33 +7415,33 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7448,7 +7452,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7457,22 +7461,22 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7497,13 +7501,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7521,33 +7525,33 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7558,7 +7562,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7570,13 +7574,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7627,13 +7631,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -7642,7 +7646,7 @@
         <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7650,14 +7654,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7676,16 +7680,16 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7723,19 +7727,19 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7747,10 +7751,10 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7758,13 +7762,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="C55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
@@ -7786,13 +7790,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7843,7 +7847,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7855,7 +7859,7 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7866,10 +7870,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7889,22 +7893,22 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7941,17 +7945,17 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7963,24 +7967,24 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>76</v>
@@ -7990,7 +7994,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7999,22 +8003,22 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8039,11 +8043,11 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8061,7 +8065,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8073,21 +8077,21 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8098,7 +8102,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8110,13 +8114,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8167,13 +8171,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8182,7 +8186,7 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8190,14 +8194,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8216,16 +8220,16 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8263,19 +8267,19 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8287,10 +8291,10 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8298,10 +8302,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8309,10 +8313,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8321,29 +8325,29 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>76</v>
@@ -8385,33 +8389,33 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8422,7 +8426,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8431,19 +8435,19 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8493,33 +8497,33 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8530,7 +8534,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8539,20 +8543,20 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8601,33 +8605,33 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8638,7 +8642,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8647,20 +8651,20 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8709,33 +8713,33 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8746,7 +8750,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8755,22 +8759,22 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8819,36 +8823,36 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
@@ -8858,7 +8862,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8867,22 +8871,22 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8907,11 +8911,11 @@
         <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>76</v>
@@ -8929,7 +8933,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8941,21 +8945,21 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8966,7 +8970,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8978,13 +8982,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9035,13 +9039,13 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
@@ -9050,7 +9054,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9058,14 +9062,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9084,16 +9088,16 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9131,19 +9135,19 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9155,10 +9159,10 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9166,10 +9170,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9177,10 +9181,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9189,29 +9193,29 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -9253,33 +9257,33 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9290,7 +9294,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9299,19 +9303,19 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9361,33 +9365,33 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9398,7 +9402,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9407,20 +9411,20 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9469,33 +9473,33 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9506,7 +9510,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9515,20 +9519,20 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -9577,33 +9581,33 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9614,7 +9618,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9623,22 +9627,22 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9687,33 +9691,33 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9724,7 +9728,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9733,22 +9737,22 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9797,33 +9801,33 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9843,16 +9847,16 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9903,7 +9907,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -9915,21 +9919,21 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9940,7 +9944,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9952,13 +9956,13 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10009,13 +10013,13 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
@@ -10024,7 +10028,7 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10032,14 +10036,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10058,16 +10062,16 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10105,19 +10109,19 @@
         <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10129,10 +10133,10 @@
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10140,13 +10144,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="B77" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="C77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>76</v>
@@ -10168,13 +10172,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10225,7 +10229,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10237,7 +10241,7 @@
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10248,10 +10252,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10262,7 +10266,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10271,22 +10275,22 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10311,11 +10315,11 @@
         <v>76</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>76</v>
@@ -10333,33 +10337,33 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10370,7 +10374,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10382,19 +10386,19 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10431,46 +10435,46 @@
         <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>76</v>
@@ -10480,7 +10484,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10492,19 +10496,19 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10553,33 +10557,33 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10590,7 +10594,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -10599,22 +10603,22 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -10651,46 +10655,46 @@
         <v>76</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>76</v>
@@ -10700,7 +10704,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10712,19 +10716,19 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -10773,36 +10777,36 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>76</v>
@@ -10812,7 +10816,7 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -10824,19 +10828,19 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -10885,36 +10889,36 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>76</v>
@@ -10924,7 +10928,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -10936,19 +10940,19 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -10997,33 +11001,33 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11034,7 +11038,7 @@
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11046,19 +11050,19 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -11107,33 +11111,33 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11144,7 +11148,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11156,19 +11160,19 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
@@ -11217,33 +11221,33 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11254,7 +11258,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11266,19 +11270,19 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -11327,25 +11331,25 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
@@ -2054,13 +2050,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2126,7 +2122,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -2134,10 +2130,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2148,25 +2144,25 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2217,22 +2213,22 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>76</v>
@@ -2240,14 +2236,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -2266,16 +2262,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2313,19 +2309,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -2337,10 +2333,10 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>76</v>
@@ -2348,13 +2344,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -2376,13 +2372,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2433,7 +2429,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2445,7 +2441,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2456,13 +2452,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>76</v>
@@ -2484,13 +2480,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2541,7 +2537,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2553,7 +2549,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2564,13 +2560,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>76</v>
@@ -2592,13 +2588,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2649,7 +2645,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2661,7 +2657,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2672,13 +2668,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>76</v>
@@ -2700,13 +2696,13 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2757,7 +2753,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2769,7 +2765,7 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2780,14 +2776,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2800,25 +2796,25 @@
         <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="J9" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2867,7 +2863,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2879,10 +2875,10 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2890,10 +2886,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2904,7 +2900,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2913,22 +2909,22 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2977,33 +2973,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK10" t="s" s="2">
+      <c r="AL10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3014,31 +3010,31 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -3087,33 +3083,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AL11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3133,22 +3129,22 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -3173,11 +3169,11 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -3195,7 +3191,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3207,21 +3203,21 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3232,28 +3228,28 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3303,33 +3299,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AL13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3340,7 +3336,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -3352,19 +3348,19 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3413,33 +3409,33 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3450,25 +3446,25 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3519,22 +3515,22 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3542,14 +3538,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3568,16 +3564,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3615,19 +3611,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3639,10 +3635,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3650,14 +3646,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3670,25 +3666,25 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3737,7 +3733,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3749,10 +3745,10 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3760,10 +3756,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3783,20 +3779,20 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3845,7 +3841,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3857,10 +3853,10 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3868,10 +3864,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3882,7 +3878,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3891,20 +3887,20 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3953,22 +3949,22 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3976,10 +3972,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3990,25 +3986,25 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4059,22 +4055,22 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4082,14 +4078,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4108,16 +4104,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4155,19 +4151,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4179,10 +4175,10 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4190,10 +4186,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4204,7 +4200,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4213,16 +4209,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4273,22 +4269,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4296,10 +4292,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4310,7 +4306,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4319,22 +4315,22 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4383,22 +4379,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4406,10 +4402,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4420,7 +4416,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4429,19 +4425,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4491,22 +4487,22 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4514,10 +4510,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4528,7 +4524,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4537,22 +4533,22 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4601,22 +4597,22 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4624,10 +4620,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4638,7 +4634,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4647,22 +4643,22 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="N26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4711,22 +4707,22 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4734,10 +4730,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4748,7 +4744,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4757,19 +4753,19 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4795,46 +4791,46 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4842,10 +4838,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4856,7 +4852,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4865,86 +4861,86 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4952,10 +4948,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4966,7 +4962,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4975,19 +4971,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5037,22 +5033,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5060,10 +5056,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5074,7 +5070,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5083,19 +5079,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5145,22 +5141,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5168,10 +5164,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5182,7 +5178,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5191,19 +5187,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5253,22 +5249,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5276,10 +5272,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5290,7 +5286,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5299,19 +5295,19 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5337,14 +5333,14 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5361,22 +5357,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5384,10 +5380,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5407,19 +5403,19 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5445,29 +5441,29 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5479,10 +5475,10 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5490,10 +5486,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5513,19 +5509,19 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5575,7 +5571,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5587,10 +5583,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5598,10 +5594,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5621,22 +5617,22 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5661,31 +5657,31 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5697,10 +5693,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5708,10 +5704,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5722,7 +5718,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5731,19 +5727,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5793,22 +5789,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5816,10 +5812,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5830,7 +5826,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5839,19 +5835,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5877,44 +5873,44 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF37" t="s" s="2">
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5922,10 +5918,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5936,7 +5932,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5945,19 +5941,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6007,33 +6003,33 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6044,7 +6040,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6053,22 +6049,22 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6093,55 +6089,55 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6152,25 +6148,25 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6221,22 +6217,22 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6244,14 +6240,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6270,16 +6266,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6317,19 +6313,19 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC41" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC41" t="s" s="2">
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6341,10 +6337,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6352,13 +6348,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>76</v>
@@ -6380,13 +6376,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6437,7 +6433,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6449,7 +6445,7 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6460,13 +6456,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
@@ -6488,13 +6484,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6545,7 +6541,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6557,7 +6553,7 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6568,10 +6564,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6591,22 +6587,22 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6655,7 +6651,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6667,21 +6663,21 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6692,31 +6688,31 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6765,33 +6761,33 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6802,7 +6798,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6811,22 +6807,22 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6851,55 +6847,55 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6910,25 +6906,25 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6979,22 +6975,22 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7002,14 +6998,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7028,16 +7024,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7075,19 +7071,19 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC48" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC48" t="s" s="2">
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7099,10 +7095,10 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7110,13 +7106,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
@@ -7138,13 +7134,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7195,7 +7191,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7207,7 +7203,7 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7218,10 +7214,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7241,22 +7237,22 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7305,7 +7301,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7317,21 +7313,21 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7342,31 +7338,31 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7415,33 +7411,33 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7452,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7461,22 +7457,22 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7501,57 +7497,57 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AA52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7562,25 +7558,25 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7631,22 +7627,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7654,14 +7650,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7680,16 +7676,16 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7727,19 +7723,19 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC54" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC54" t="s" s="2">
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7751,10 +7747,10 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7762,13 +7758,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
@@ -7790,13 +7786,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7847,7 +7843,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7859,7 +7855,7 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7870,10 +7866,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7893,22 +7889,22 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7945,17 +7941,17 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7967,24 +7963,24 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>76</v>
@@ -7994,7 +7990,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8003,22 +7999,22 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8043,11 +8039,11 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8065,7 +8061,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8077,21 +8073,21 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8102,25 +8098,25 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8171,22 +8167,22 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -8194,14 +8190,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8220,16 +8216,16 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8267,19 +8263,19 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC59" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC59" t="s" s="2">
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
+      <c r="AF59" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8291,10 +8287,10 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8302,10 +8298,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8313,10 +8309,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8325,97 +8321,97 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8426,28 +8422,28 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8497,33 +8493,33 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8534,7 +8530,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8543,20 +8539,20 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8605,33 +8601,33 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8642,29 +8638,29 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8713,33 +8709,33 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8750,7 +8746,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8759,22 +8755,22 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8823,36 +8819,36 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
@@ -8862,7 +8858,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8871,22 +8867,22 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8911,11 +8907,11 @@
         <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>76</v>
@@ -8933,7 +8929,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8945,21 +8941,21 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8970,25 +8966,25 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9039,22 +9035,22 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9062,14 +9058,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9088,16 +9084,16 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9135,19 +9131,19 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC67" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC67" t="s" s="2">
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
+      <c r="AF67" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9159,10 +9155,10 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9170,10 +9166,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9181,10 +9177,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9193,29 +9189,29 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -9257,33 +9253,33 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9294,28 +9290,28 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9365,33 +9361,33 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9402,7 +9398,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9411,20 +9407,20 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9473,33 +9469,33 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9510,29 +9506,29 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -9581,33 +9577,33 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9618,7 +9614,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9627,22 +9623,22 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9691,33 +9687,33 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9728,31 +9724,31 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L73" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9801,33 +9797,33 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9847,16 +9843,16 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9907,7 +9903,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -9919,21 +9915,21 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9944,25 +9940,25 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10013,22 +10009,22 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10036,14 +10032,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10062,16 +10058,16 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10109,19 +10105,19 @@
         <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC76" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC76" t="s" s="2">
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
+      <c r="AF76" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10133,10 +10129,10 @@
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10144,13 +10140,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>76</v>
@@ -10172,13 +10168,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10229,7 +10225,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10241,7 +10237,7 @@
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
@@ -10252,10 +10248,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10266,7 +10262,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10275,22 +10271,22 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10315,55 +10311,55 @@
         <v>76</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10374,7 +10370,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10386,19 +10382,19 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10435,46 +10431,46 @@
         <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI79" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI79" t="s" s="2">
+      <c r="AJ79" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AJ79" t="s" s="2">
+      <c r="AK79" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>76</v>
@@ -10484,7 +10480,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10496,19 +10492,19 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="O80" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10557,33 +10553,33 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AJ80" t="s" s="2">
+      <c r="AK80" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10594,7 +10590,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -10603,22 +10599,22 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -10655,46 +10651,46 @@
         <v>76</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>76</v>
@@ -10704,7 +10700,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10716,19 +10712,19 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="O82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -10777,36 +10773,36 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="AL82" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>76</v>
@@ -10816,7 +10812,7 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -10828,19 +10824,19 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="O83" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -10889,36 +10885,36 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="AL83" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>76</v>
@@ -10928,7 +10924,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -10940,19 +10936,19 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11001,33 +10997,33 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AJ84" t="s" s="2">
+      <c r="AK84" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK84" t="s" s="2">
+      <c r="AL84" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11038,7 +11034,7 @@
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11050,19 +11046,19 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -11111,33 +11107,33 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AK85" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="AL85" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11148,7 +11144,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11160,19 +11156,19 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
@@ -11221,33 +11217,33 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AJ86" t="s" s="2">
+      <c r="AK86" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK86" t="s" s="2">
+      <c r="AL86" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11258,7 +11254,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11270,19 +11266,19 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O87" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -11331,25 +11327,25 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AJ87" t="s" s="2">
+      <c r="AK87" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -272,10 +272,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -317,8 +317,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Dosage.extension:dosageComment</t>
@@ -395,14 +395,15 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -430,7 +431,7 @@
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -511,11 +512,12 @@
     <t>投与タイミングを記録する。</t>
   </si>
   <si>
-    <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
+    <t>複数回発生する可能性のあるイベントの発生について説明します。タイミングスケジュールは、イベントが発生することが予想または要求される時期を指定するために使用され、過去または進行中のイベントの概要を表すためにも使用できます。簡単にするために、タイミングコンポーネントの定義は「将来の」イベントとして表現されますが、そのようなコンポーネントは歴史的または進行中のイベントを説明するためにも使用できます。
+タイミングスケジュールは、イベントが発生したときのイベントおよび/または基準のリストであり、構造化された形式またはコードとして表現できます。イベントと繰り返し仕様の両方が提供される場合、イベントのリストは、繰り返し構造の情報の解釈として理解されるべきです。 / Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
 A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
   </si>
   <si>
-    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>患者に薬を与えるためのタイミングスケジュール。このデータ型により、さまざまな式が可能になります。たとえば、「8時間ごと」。"一日に三回";「2011年12月23日から10日間の朝食の1/2の1/2：」;「2013年10月15日、2013年10月17日、2013年11月1日」。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>QSET&lt;TS&gt; (GTS)</t>
@@ -543,7 +545,7 @@
     <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -571,8 +573,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -619,7 +621,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
+    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -687,7 +689,7 @@
 </t>
   </si>
   <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
@@ -696,7 +698,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A unit of time (units from UCUM).</t>
+    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -720,7 +722,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -780,7 +782,7 @@
     <t>Dosage.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
+    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -829,7 +831,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>Real world event relating to the schedule.</t>
+    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -863,7 +865,7 @@
     <t>Dosage.timing.code</t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -896,7 +898,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
@@ -918,7 +920,7 @@
 【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
@@ -975,16 +977,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -999,16 +1001,16 @@
     <t>Dosage.site.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1030,7 +1032,7 @@
 【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+    <t>患者の体への、または患者の体内への治療剤の投与のルートまたは生理学的経路を指定するコード。 / A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
@@ -1085,7 +1087,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1169,16 +1171,16 @@
 </t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
@@ -1199,13 +1201,13 @@
     <t>Dosage.method.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1223,13 +1225,13 @@
     <t>Dosage.method.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1247,13 +1249,13 @@
     <t>Dosage.method.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1271,16 +1273,16 @@
     <t>Dosage.method.coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1393,16 +1395,16 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>固定数量（コンパレータなし） / A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1416,8 +1418,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1456,12 +1458,14 @@
     <t>薬剤が投与される量の速度</t>
   </si>
   <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.+    <t>レートとデスケーティティの両方を供給して、薬の投与と供給の方法についての詳細を提供することができます。レートが時間の経過とともに変化することを目的としている場合、ローカルのルール/規制に応じて、各変更は、更新されたレートのある薬物療法の新しいバージョンとしてキャプチャするか、新しいレートで新しい薬物採取でキャプチャされる必要があります。++レート（100 ml/hour）を使用して、時間の経過とともにレートを指定することができます。RateQuantityアプローチでは、時間が分母として指定されている特定の比率ではなく、ML/時間が含まれているUCUMグラマーを解析する機能をシステムに持つ必要があります。2時間にわたって500mlなどのレートが指定されている場合、250 mg/時のレートの量を使用して指定するよりも、定量的に正しい場合があります。 / It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.  It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
   </si>
   <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -1483,11 +1487,11 @@
     <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>RTO</t>
@@ -1509,8 +1513,8 @@
     <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:存在する場合、低い値は高よりも低い値を持つものとします / If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
@@ -1534,7 +1538,7 @@
     <t>単位時間当たりの投薬量の上限</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+    <t>期間にわたって被験者に投与される可能性のある治療物質の最大総量。たとえば、24時間で1000mg。 / The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
@@ -1546,7 +1550,7 @@
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+    <t>投与ごとの被験者に投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
@@ -1555,7 +1559,7 @@
     <t>生涯の投薬量の上限</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+    <t>被験者の寿命ごとに投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1899,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="104.59765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -1391,27 +1391,18 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
-    <t>固定数量（コンパレータなし） / A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>1回投与量（体積）</t>
+  </si>
+  <si>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
+【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1426,23 +1417,6 @@
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]:doseQuantity</t>
-  </si>
-  <si>
-    <t>doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>1回投与量（体積）</t>
-  </si>
-  <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
-【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1468,6 +1442,13 @@
     <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
@@ -1529,7 +1510,14 @@
     <t>rateQuantity</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
     <t>投与速度(流量)を指定する単位は流量を表す単位（e.g. 量/時間)を指定する</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1866,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL87"/>
+  <dimension ref="A1:AL86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10396,13 +10384,13 @@
         <v>446</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10439,14 +10427,16 @@
         <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AC79" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>444</v>
@@ -10458,28 +10448,26 @@
         <v>83</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>76</v>
       </c>
@@ -10497,22 +10485,22 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10549,19 +10537,17 @@
         <v>76</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -10570,26 +10556,28 @@
         <v>83</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>452</v>
+        <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>453</v>
+        <v>134</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10607,22 +10595,22 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -10659,17 +10647,19 @@
         <v>76</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -10678,27 +10668,27 @@
         <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>134</v>
+        <v>468</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>468</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>76</v>
@@ -10720,19 +10710,19 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -10781,7 +10771,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -10790,27 +10780,27 @@
         <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>127</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>76</v>
@@ -10832,19 +10822,19 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -10893,7 +10883,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -10902,28 +10892,26 @@
         <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>76</v>
       </c>
@@ -10944,19 +10932,19 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11005,7 +10993,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11014,24 +11002,24 @@
         <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>455</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11054,16 +11042,16 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>489</v>
@@ -11115,7 +11103,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11124,16 +11112,16 @@
         <v>83</v>
       </c>
       <c r="AI85" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="86">
@@ -11164,7 +11152,7 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>491</v>
@@ -11173,10 +11161,10 @@
         <v>491</v>
       </c>
       <c r="N86" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>76</v>
@@ -11234,126 +11222,16 @@
         <v>83</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -145,6 +145,10 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
@@ -315,10 +319,6 @@
   </si>
   <si>
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>.text</t>
@@ -1884,10 +1884,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1909,7 +1909,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1921,13 +1921,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1978,13 +1978,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1993,7 +1993,7 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>38</v>
@@ -2001,14 +2001,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -2027,16 +2027,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2074,19 +2074,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -2098,10 +2098,10 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>38</v>
@@ -2137,13 +2137,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2194,7 +2194,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -2206,7 +2206,7 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2217,13 +2217,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>38</v>
@@ -2245,13 +2245,13 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2302,7 +2302,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
@@ -2314,7 +2314,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2325,13 +2325,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>38</v>
@@ -2353,13 +2353,13 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2410,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -2422,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>38</v>
@@ -2461,13 +2461,13 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2518,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2530,7 +2530,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -2541,14 +2541,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2561,25 +2561,25 @@
         <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>38</v>
@@ -2628,7 +2628,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2640,10 +2640,10 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2665,7 +2665,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2674,22 +2674,22 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2738,19 +2738,19 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>97</v>
@@ -2775,7 +2775,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2784,10 +2784,10 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>100</v>
@@ -2854,13 +2854,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>97</v>
@@ -2894,7 +2894,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>106</v>
@@ -2968,7 +2968,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>97</v>
@@ -2993,7 +2993,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3002,10 +3002,10 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>115</v>
@@ -3070,13 +3070,13 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>97</v>
@@ -3101,7 +3101,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3180,19 +3180,19 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -3211,7 +3211,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3223,13 +3223,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3280,13 +3280,13 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
@@ -3295,7 +3295,7 @@
         <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3329,16 +3329,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3376,19 +3376,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3400,10 +3400,10 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3431,25 +3431,25 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3498,7 +3498,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3510,10 +3510,10 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -3544,7 +3544,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>129</v>
@@ -3618,7 +3618,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>134</v>
@@ -3643,7 +3643,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3652,7 +3652,7 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>136</v>
@@ -3720,7 +3720,7 @@
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
@@ -3751,7 +3751,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3763,13 +3763,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3820,13 +3820,13 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
@@ -3835,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3869,16 +3869,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3916,19 +3916,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3940,10 +3940,10 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -3965,7 +3965,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3974,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>146</v>
@@ -4040,13 +4040,13 @@
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>150</v>
@@ -4071,7 +4071,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4080,7 +4080,7 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>152</v>
@@ -4150,13 +4150,13 @@
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>158</v>
@@ -4181,7 +4181,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4190,7 +4190,7 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>152</v>
@@ -4258,13 +4258,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>158</v>
@@ -4289,7 +4289,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4298,7 +4298,7 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>165</v>
@@ -4368,13 +4368,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>171</v>
@@ -4399,7 +4399,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4408,7 +4408,7 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>165</v>
@@ -4478,13 +4478,13 @@
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>171</v>
@@ -4509,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4518,7 +4518,7 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>177</v>
@@ -4586,13 +4586,13 @@
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>184</v>
@@ -4617,7 +4617,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4626,7 +4626,7 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>152</v>
@@ -4696,13 +4696,13 @@
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>171</v>
@@ -4727,7 +4727,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4736,7 +4736,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>152</v>
@@ -4804,13 +4804,13 @@
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>171</v>
@@ -4835,7 +4835,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4844,7 +4844,7 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>165</v>
@@ -4912,13 +4912,13 @@
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>171</v>
@@ -4943,7 +4943,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4952,7 +4952,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>165</v>
@@ -5020,13 +5020,13 @@
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>171</v>
@@ -5051,7 +5051,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5060,7 +5060,7 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>177</v>
@@ -5128,13 +5128,13 @@
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>184</v>
@@ -5168,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>177</v>
@@ -5240,10 +5240,10 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -5274,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>215</v>
@@ -5348,10 +5348,10 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -5382,7 +5382,7 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>177</v>
@@ -5458,7 +5458,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>228</v>
@@ -5483,7 +5483,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5492,7 +5492,7 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>230</v>
@@ -5560,13 +5560,13 @@
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>234</v>
@@ -5591,7 +5591,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5600,7 +5600,7 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>106</v>
@@ -5666,13 +5666,13 @@
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>241</v>
@@ -5697,7 +5697,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5706,7 +5706,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>243</v>
@@ -5774,13 +5774,13 @@
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>247</v>
@@ -5805,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5814,7 +5814,7 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>106</v>
@@ -5882,13 +5882,13 @@
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>255</v>
@@ -5913,7 +5913,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -5925,13 +5925,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5982,13 +5982,13 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
@@ -5997,7 +5997,7 @@
         <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6031,16 +6031,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6078,19 +6078,19 @@
         <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6102,10 +6102,10 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>38</v>
@@ -6198,7 +6198,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6210,7 +6210,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6306,7 +6306,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6318,7 +6318,7 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6352,7 +6352,7 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>270</v>
@@ -6428,7 +6428,7 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>276</v>
@@ -6453,7 +6453,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6462,10 +6462,10 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>279</v>
@@ -6532,13 +6532,13 @@
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>284</v>
@@ -6563,7 +6563,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6572,7 +6572,7 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>106</v>
@@ -6640,13 +6640,13 @@
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>291</v>
@@ -6671,7 +6671,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6683,13 +6683,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6740,13 +6740,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
@@ -6755,7 +6755,7 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>38</v>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6789,16 +6789,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6836,19 +6836,19 @@
         <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6860,10 +6860,10 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
@@ -6956,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -6968,7 +6968,7 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7002,7 +7002,7 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>270</v>
@@ -7078,7 +7078,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>276</v>
@@ -7103,7 +7103,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7112,10 +7112,10 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>279</v>
@@ -7182,13 +7182,13 @@
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>284</v>
@@ -7213,7 +7213,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7222,7 +7222,7 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>106</v>
@@ -7292,13 +7292,13 @@
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>309</v>
@@ -7323,7 +7323,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7335,13 +7335,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7392,13 +7392,13 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
@@ -7407,7 +7407,7 @@
         <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7441,16 +7441,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7488,19 +7488,19 @@
         <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7512,10 +7512,10 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
@@ -7608,7 +7608,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7620,7 +7620,7 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -7654,7 +7654,7 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>270</v>
@@ -7713,7 +7713,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>275</v>
@@ -7728,7 +7728,7 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>276</v>
@@ -7755,7 +7755,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -7764,7 +7764,7 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>270</v>
@@ -7838,7 +7838,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>276</v>
@@ -7863,7 +7863,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -7875,13 +7875,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7932,13 +7932,13 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
@@ -7947,7 +7947,7 @@
         <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7981,16 +7981,16 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8028,19 +8028,19 @@
         <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8052,10 +8052,10 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>38</v>
@@ -8074,10 +8074,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8086,7 +8086,7 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>333</v>
@@ -8156,13 +8156,13 @@
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>340</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8196,10 +8196,10 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>344</v>
@@ -8264,13 +8264,13 @@
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>348</v>
@@ -8295,7 +8295,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8304,7 +8304,7 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>177</v>
@@ -8372,13 +8372,13 @@
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>356</v>
@@ -8403,7 +8403,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8412,10 +8412,10 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>360</v>
@@ -8480,13 +8480,13 @@
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>364</v>
@@ -8511,7 +8511,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8520,7 +8520,7 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>243</v>
@@ -8590,13 +8590,13 @@
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>373</v>
@@ -8623,7 +8623,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -8632,7 +8632,7 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>270</v>
@@ -8706,7 +8706,7 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>276</v>
@@ -8731,7 +8731,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -8743,13 +8743,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8800,13 +8800,13 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
@@ -8815,7 +8815,7 @@
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8849,16 +8849,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8896,19 +8896,19 @@
         <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -8920,10 +8920,10 @@
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>38</v>
@@ -8942,10 +8942,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -8954,7 +8954,7 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>333</v>
@@ -9024,13 +9024,13 @@
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>340</v>
@@ -9055,7 +9055,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9064,10 +9064,10 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>344</v>
@@ -9132,13 +9132,13 @@
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>348</v>
@@ -9163,7 +9163,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9172,7 +9172,7 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>177</v>
@@ -9240,13 +9240,13 @@
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>356</v>
@@ -9271,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -9280,10 +9280,10 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>360</v>
@@ -9348,13 +9348,13 @@
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>364</v>
@@ -9379,7 +9379,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9388,7 +9388,7 @@
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>243</v>
@@ -9458,13 +9458,13 @@
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>373</v>
@@ -9489,7 +9489,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -9498,10 +9498,10 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>100</v>
@@ -9568,13 +9568,13 @@
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>284</v>
@@ -9608,7 +9608,7 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>136</v>
@@ -9680,7 +9680,7 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
@@ -9705,7 +9705,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -9717,13 +9717,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9774,13 +9774,13 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
@@ -9789,7 +9789,7 @@
         <v>38</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>38</v>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9823,16 +9823,16 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9870,19 +9870,19 @@
         <v>38</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -9894,10 +9894,10 @@
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>38</v>
@@ -9990,7 +9990,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10002,7 +10002,7 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
@@ -10027,7 +10027,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -10036,7 +10036,7 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>106</v>
@@ -10104,13 +10104,13 @@
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
@@ -10135,7 +10135,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -10214,7 +10214,7 @@
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>411</v>
@@ -10245,7 +10245,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10254,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>416</v>
@@ -10322,13 +10322,13 @@
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>423</v>
@@ -10355,7 +10355,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>38</v>
@@ -10434,7 +10434,7 @@
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>411</v>
@@ -10446,7 +10446,7 @@
         <v>431</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
@@ -10467,7 +10467,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -10546,7 +10546,7 @@
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>411</v>
@@ -10579,7 +10579,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>38</v>
@@ -10658,7 +10658,7 @@
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>411</v>
@@ -10689,7 +10689,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>38</v>
@@ -10768,7 +10768,7 @@
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>411</v>
@@ -10780,7 +10780,7 @@
         <v>431</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
@@ -10799,7 +10799,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>38</v>
@@ -10878,7 +10878,7 @@
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>411</v>
@@ -10909,7 +10909,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>38</v>
@@ -10988,7 +10988,7 @@
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>411</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -780,7 +780,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。  
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
